--- a/all_cmds_by_ds.xlsx
+++ b/all_cmds_by_ds.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="184">
   <si>
     <t xml:space="preserve">Breast cancer</t>
   </si>
@@ -611,6 +611,71 @@
 Rscript cmp_datasets_nbrTADs.R
 Rscript cmp_datasets_resol.R
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">comp pipeline results</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># ./run_pipeline.sh GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal TCGAgbm_classical_mesenchymal
+Rscript compare_pipeline_results.R TCGAgbm_classical_mesenchymal GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+Rscript compare_pipeline_signif.R TCGAgbm_classical_mesenchymal GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+# ./run_pipeline.sh GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal TCGAgbm_classical_neural
+Rscript compare_pipeline_results.R TCGAgbm_classical_neural GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+Rscript compare_pipeline_signif.R TCGAgbm_classical_neural GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+# ./run_pipeline.sh GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal TCGAgbm_classical_proneural
+Rscript compare_pipeline_results.R TCGAgbm_classical_proneural GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+Rscript compare_pipeline_signif.R TCGAgbm_classical_proneural GSE105194_ENCFF027IEO_astroCerebellum_vs_GSE105957_ENCFF715HDW_astroSpinal
+# COLORECTAL
+# ./run_pipeline.sh GSE105318_ENCFF439QFU_DLD1 TCGAcoad_msi_mss
+Rscript compare_pipeline_results.R TCGAcoad_msi_mss GSE105318_ENCFF439QFU_DLD1
+Rscript compare_pipeline_signif.R TCGAcoad_msi_mss GSE105318_ENCFF439QFU_DLD1
+# BREAST
+# ./run_pipeline.sh GSM1631185_MCF7_vs_GSE75070_MCF7_shGFP TCGAbrca_lum_bas
+Rscript compare_pipeline_results.R TCGAbrca_lum_bas GSM1631185_MCF7_vs_GSE75070_MCF7_shGFP consensus
+Rscript compare_pipeline_signif.R TCGAbrca_lum_bas GSM1631185_MCF7_vs_GSE75070_MCF7_shGFP consensus
+# KIDNEY
+# ./run_pipeline.sh GSE105465_ENCFF777DUA_Caki2_vs_GSE105235_ENCFF235TGH_G401 TCGAkich_norm_kich
+Rscript compare_pipeline_results.R TCGAkich_norm_kich GSE105465_ENCFF777DUA_Caki2_vs_GSE105235_ENCFF235TGH_G401
+Rscript compare_pipeline_signif.R TCGAkich_norm_kich GSE105465_ENCFF777DUA_Caki2_vs_GSE105235_ENCFF235TGH_G401
+# LUNG
+# ./run_pipeline.sh GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460 TCGAluad_mutKRAS_mutEGFR
+Rscript compare_pipeline_results.R TCGAluad_mutKRAS_mutEGFR GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+Rscript compare_pipeline_signif.R TCGAluad_mutKRAS_mutEGFR GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+# ./run_pipeline.sh GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460 TCGAluad_nonsmoker_smoker
+Rscript compare_pipeline_results.R TCGAluad_nonsmoker_smoker GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+Rscript compare_pipeline_signif.R TCGAluad_nonsmoker_smoker GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+# ./run_pipeline.sh GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460 TCGAluad_wt_mutKRAS
+Rscript compare_pipeline_results.R TCGAluad_wt_mutKRAS GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+Rscript compare_pipeline_signif.R  TCGAluad_wt_mutKRAS GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+# ./run_pipeline.sh GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460 TCGAlusc_norm_lusc
+Rscript compare_pipeline_results.R TCGAlusc_norm_lusc GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+Rscript compare_pipeline_signif.R TCGAlusc_norm_lusc GSE105600_ENCFF852YOE_A549_vs_GSE105725_ENCFF697NNX_NCIH460
+# SKIN
+# ./run_pipeline.sh GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5 TCGAskcm_lowInf_highInf
+Rscript compare_pipeline_results.R  TCGAskcm_lowInf_highInf  GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5
+Rscript compare_pipeline_signif.R  TCGAskcm_lowInf_highInf  GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5
+# ./run_pipeline.sh GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5 TCGAskcm_wt_mutBRAF
+Rscript compare_pipeline_results.R  TCGAskcm_lowInf_highInf  GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5
+Rscript compare_pipeline_signif.R  TCGAskcm_lowInf_highInf  GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5
+# ./run_pipeline.sh GSE106022_ENCFF614EKT_RPMI7951_vs_GSE105491_ENCFF458OWO_SKMEL5 TCGAskcm_wt_mutCTNNB1
+# PANCREAS
+# ./run_pipeline.sh GSE105566_ENCFF358MNA_Panc1 TCGApaad_wt_mutKRAS
+Rscript compare_pipeline_results.R TCGApaad_wt_mutKRAS  GSE105566_ENCFF358MNA_Panc1
+Rscript compare_pipeline_signif.R TCGApaad_wt_mutKRAS  GSE105566_ENCFF358MNA_Panc1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for the coexpr ~ dist data: prepare sameTAD data frame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./create_sameTAD.sh
+# hard-coded list of all_TAD_files_ds and calls create_sameTAD_sortNoDup_otherTADfile.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compute the coexpr~dist ratio
+./all_AUC_coexprDist_sortNoDup_otherTADfile.sh
+# hard-coded list of pipeline datasets
+# calls AUC_coexprDist_withFam_sortNoDup_otherTADfile.R</t>
   </si>
   <si>
     <t xml:space="preserve">40kb 
@@ -2035,7 +2100,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2101,12 +2166,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2340,19 +2399,19 @@
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2455,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3534,7 +3593,7 @@
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="20" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3551,9 +3610,44 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="63.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="s">
+    <row r="67" customFormat="false" ht="63.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="28" t="s">
         <v>132</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="777.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="25.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="48.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="20" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3705,7 +3799,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="65">
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="D5:D6"/>
@@ -3769,6 +3863,8 @@
     <mergeCell ref="B61:E61"/>
     <mergeCell ref="B62:E62"/>
     <mergeCell ref="B63:E63"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A70:F70"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3787,7 +3883,7 @@
   </sheetPr>
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -3834,7 +3930,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>38</v>
@@ -3846,7 +3942,7 @@
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="71.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3864,7 +3960,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
@@ -3876,7 +3972,7 @@
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="8" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3894,7 +3990,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G5" s="12" t="s">
         <v>13</v>
@@ -3906,7 +4002,7 @@
       </c>
       <c r="K5" s="15"/>
       <c r="L5" s="16" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3948,7 +4044,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>38</v>
@@ -3960,7 +4056,7 @@
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="8" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3978,7 +4074,7 @@
         <v>42</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>38</v>
@@ -3990,7 +4086,7 @@
       </c>
       <c r="K8" s="10"/>
       <c r="L8" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,7 +4109,7 @@
         <v>53</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,7 +4129,7 @@
         <v>59</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>59</v>
@@ -4067,13 +4163,13 @@
         <v>63</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J11" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4093,13 +4189,13 @@
         <v>69</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J12" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,13 +4213,13 @@
         <v>74</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J13" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4140,13 +4236,13 @@
         <v>81</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4164,13 +4260,13 @@
         <v>86</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4190,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,13 +4323,13 @@
         <v>106</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="81.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4251,13 +4347,13 @@
         <v>109</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="133.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4290,13 +4386,13 @@
         <v>118</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="71.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4308,10 +4404,10 @@
         <v>120</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4327,13 +4423,13 @@
         <v>124</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="58.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,13 +4441,13 @@
         <v>126</v>
       </c>
       <c r="F24" s="20" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4371,7 +4467,7 @@
     </row>
     <row r="29" customFormat="false" ht="62.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="30" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
@@ -4384,7 +4480,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="33" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4488,7 @@
     </row>
     <row r="34" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="34" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B34" s="34"/>
       <c r="C34" s="34"/>
@@ -4402,7 +4498,7 @@
     </row>
     <row r="36" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="34" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
@@ -4412,7 +4508,7 @@
     </row>
     <row r="38" customFormat="false" ht="69" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
@@ -4421,12 +4517,12 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="33" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="57.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="34" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
@@ -4435,7 +4531,7 @@
     </row>
     <row r="45" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="34" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B45" s="34"/>
       <c r="C45" s="34"/>
@@ -4444,82 +4540,82 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="33" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="33" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="33" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="114.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="35" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="33" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="91.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="35" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="103.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="35" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="36" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="278.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="35" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="406.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="35" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="350.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="35" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -4569,7 +4665,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/all_cmds_by_ds.xlsx
+++ b/all_cmds_by_ds.xlsx
@@ -2514,8 +2514,8 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
